--- a/F9_riesgos.xlsx
+++ b/F9_riesgos.xlsx
@@ -666,7 +666,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
